--- a/Excel/26-06-2024.xlsx
+++ b/Excel/26-06-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\git\repository8\2AFMC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C2A9690-FF41-4CBA-ABB6-827B0A262AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406A282-220B-40D1-83CF-0A6ADB51E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A657AB2E-B314-4F6C-8D39-C56216A0F849}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="292">
   <si>
     <t>CodeId</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>CORAGEN</t>
-  </si>
-  <si>
-    <t>10 ML</t>
   </si>
   <si>
     <t>0524IB9002</t>
@@ -1290,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F367772-9574-460F-ACD4-8796F1C5651E}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>11006845</v>
@@ -1888,25 +1885,25 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
-        <v>84</v>
-      </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1921,15 +1918,15 @@
         <v>44000</v>
       </c>
       <c r="V11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -1938,7 +1935,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>11006845</v>
@@ -1947,25 +1944,25 @@
         <v>51</v>
       </c>
       <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>81</v>
       </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
       <c r="M12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" t="s">
         <v>88</v>
       </c>
-      <c r="N12" t="s">
-        <v>89</v>
-      </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1977,15 +1974,15 @@
         <v>44000</v>
       </c>
       <c r="V12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -1994,7 +1991,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>11006845</v>
@@ -2003,25 +2000,25 @@
         <v>51</v>
       </c>
       <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>81</v>
       </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
       <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
         <v>92</v>
       </c>
-      <c r="N13" t="s">
-        <v>93</v>
-      </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -2033,24 +2030,24 @@
         <v>44000</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>11006845</v>
@@ -2059,25 +2056,25 @@
         <v>51</v>
       </c>
       <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
       <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" t="s">
         <v>97</v>
       </c>
-      <c r="N14" t="s">
-        <v>98</v>
-      </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -2089,24 +2086,24 @@
         <v>44000</v>
       </c>
       <c r="V14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>11006845</v>
@@ -2115,25 +2112,25 @@
         <v>51</v>
       </c>
       <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
       <c r="M15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
         <v>101</v>
       </c>
-      <c r="N15" t="s">
-        <v>102</v>
-      </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -2145,24 +2142,24 @@
         <v>44000</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>11006845</v>
@@ -2171,25 +2168,25 @@
         <v>51</v>
       </c>
       <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>81</v>
       </c>
-      <c r="K16" t="s">
-        <v>82</v>
-      </c>
       <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
         <v>105</v>
       </c>
-      <c r="N16" t="s">
-        <v>106</v>
-      </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -2201,24 +2198,24 @@
         <v>44000</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>11006845</v>
@@ -2227,25 +2224,25 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
         <v>79</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
       <c r="M17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" t="s">
         <v>109</v>
       </c>
-      <c r="N17" t="s">
-        <v>110</v>
-      </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -2257,24 +2254,24 @@
         <v>44000</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>11006845</v>
@@ -2283,25 +2280,25 @@
         <v>51</v>
       </c>
       <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
-        <v>82</v>
-      </c>
       <c r="M18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" t="s">
         <v>113</v>
       </c>
-      <c r="N18" t="s">
-        <v>114</v>
-      </c>
       <c r="O18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -2313,24 +2310,24 @@
         <v>44000</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
         <v>11006845</v>
@@ -2339,25 +2336,25 @@
         <v>51</v>
       </c>
       <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
       <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
         <v>118</v>
       </c>
-      <c r="N19" t="s">
-        <v>119</v>
-      </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -2369,24 +2366,24 @@
         <v>44000</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>11006845</v>
@@ -2395,25 +2392,25 @@
         <v>51</v>
       </c>
       <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
         <v>79</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>81</v>
       </c>
-      <c r="K20" t="s">
-        <v>82</v>
-      </c>
       <c r="M20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" t="s">
         <v>122</v>
       </c>
-      <c r="N20" t="s">
-        <v>123</v>
-      </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2425,24 +2422,24 @@
         <v>44000</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
         <v>124</v>
       </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>11006845</v>
@@ -2451,25 +2448,25 @@
         <v>51</v>
       </c>
       <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>81</v>
       </c>
-      <c r="K21" t="s">
-        <v>82</v>
-      </c>
       <c r="M21" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" t="s">
         <v>126</v>
       </c>
-      <c r="N21" t="s">
-        <v>127</v>
-      </c>
       <c r="O21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -2481,18 +2478,18 @@
         <v>44000</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
         <v>129</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2504,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -2513,16 +2510,16 @@
         <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" t="s">
         <v>133</v>
       </c>
-      <c r="N22" t="s">
-        <v>134</v>
-      </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2537,21 +2534,21 @@
         <v>5976</v>
       </c>
       <c r="V22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
         <v>136</v>
       </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
       <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
         <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -2563,25 +2560,25 @@
         <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" t="s">
         <v>138</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s">
         <v>139</v>
       </c>
-      <c r="K23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>140</v>
       </c>
-      <c r="N23" t="s">
-        <v>141</v>
-      </c>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2593,18 +2590,18 @@
         <v>5976</v>
       </c>
       <c r="V23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -2616,7 +2613,7 @@
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -2625,16 +2622,16 @@
         <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" t="s">
         <v>145</v>
       </c>
-      <c r="N24" t="s">
-        <v>146</v>
-      </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2649,18 +2646,18 @@
         <v>5976</v>
       </c>
       <c r="V24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
         <v>147</v>
       </c>
-      <c r="B25" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -2672,7 +2669,7 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
         <v>28</v>
@@ -2681,16 +2678,16 @@
         <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" t="s">
         <v>149</v>
       </c>
-      <c r="N25" t="s">
-        <v>150</v>
-      </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2705,21 +2702,21 @@
         <v>5976</v>
       </c>
       <c r="V25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
         <v>151</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>152</v>
       </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -2731,25 +2728,25 @@
         <v>51</v>
       </c>
       <c r="H26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" t="s">
         <v>154</v>
       </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>155</v>
       </c>
-      <c r="N26" t="s">
-        <v>156</v>
-      </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2761,21 +2758,21 @@
         <v>5976</v>
       </c>
       <c r="V26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -2787,25 +2784,25 @@
         <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" t="s">
         <v>138</v>
       </c>
-      <c r="J27" t="s">
-        <v>139</v>
-      </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" t="s">
         <v>159</v>
       </c>
-      <c r="N27" t="s">
-        <v>160</v>
-      </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2817,21 +2814,21 @@
         <v>5976</v>
       </c>
       <c r="V27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>161</v>
       </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -2843,25 +2840,25 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" t="s">
         <v>138</v>
       </c>
-      <c r="J28" t="s">
-        <v>139</v>
-      </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" t="s">
         <v>163</v>
       </c>
-      <c r="N28" t="s">
-        <v>164</v>
-      </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2873,21 +2870,21 @@
         <v>5976</v>
       </c>
       <c r="V28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -2899,25 +2896,25 @@
         <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
         <v>138</v>
       </c>
-      <c r="J29" t="s">
-        <v>139</v>
-      </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" t="s">
         <v>167</v>
       </c>
-      <c r="N29" t="s">
-        <v>168</v>
-      </c>
       <c r="O29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2929,21 +2926,21 @@
         <v>5976</v>
       </c>
       <c r="V29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="B30" t="s">
-        <v>170</v>
-      </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -2955,25 +2952,25 @@
         <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" t="s">
         <v>138</v>
       </c>
-      <c r="J30" t="s">
-        <v>139</v>
-      </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" t="s">
         <v>171</v>
       </c>
-      <c r="N30" t="s">
-        <v>172</v>
-      </c>
       <c r="O30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2985,21 +2982,21 @@
         <v>5976</v>
       </c>
       <c r="V30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -3011,25 +3008,25 @@
         <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" t="s">
         <v>138</v>
       </c>
-      <c r="J31" t="s">
-        <v>139</v>
-      </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
+        <v>174</v>
+      </c>
+      <c r="N31" t="s">
         <v>175</v>
       </c>
-      <c r="N31" t="s">
-        <v>176</v>
-      </c>
       <c r="O31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -3041,18 +3038,18 @@
         <v>5976</v>
       </c>
       <c r="V31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
         <v>177</v>
       </c>
-      <c r="B32" t="s">
-        <v>178</v>
-      </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -3064,7 +3061,7 @@
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I32" t="s">
         <v>28</v>
@@ -3073,16 +3070,16 @@
         <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" t="s">
         <v>179</v>
       </c>
-      <c r="N32" t="s">
-        <v>180</v>
-      </c>
       <c r="O32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -3097,18 +3094,18 @@
         <v>5976</v>
       </c>
       <c r="V32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
         <v>181</v>
       </c>
-      <c r="B33" t="s">
-        <v>182</v>
-      </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -3120,7 +3117,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
@@ -3129,16 +3126,16 @@
         <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" t="s">
         <v>183</v>
       </c>
-      <c r="N33" t="s">
-        <v>184</v>
-      </c>
       <c r="O33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -3153,21 +3150,21 @@
         <v>5976</v>
       </c>
       <c r="V33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
         <v>185</v>
       </c>
-      <c r="B34" t="s">
-        <v>186</v>
-      </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -3179,25 +3176,25 @@
         <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" t="s">
         <v>138</v>
       </c>
-      <c r="J34" t="s">
-        <v>139</v>
-      </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" t="s">
         <v>187</v>
       </c>
-      <c r="N34" t="s">
-        <v>188</v>
-      </c>
       <c r="O34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -3209,21 +3206,21 @@
         <v>5976</v>
       </c>
       <c r="V34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
         <v>189</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>190</v>
       </c>
-      <c r="C35" t="s">
-        <v>191</v>
-      </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -3235,25 +3232,25 @@
         <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I35" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" t="s">
         <v>138</v>
       </c>
-      <c r="J35" t="s">
-        <v>139</v>
-      </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M35" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" t="s">
         <v>192</v>
       </c>
-      <c r="N35" t="s">
-        <v>193</v>
-      </c>
       <c r="O35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -3265,21 +3262,21 @@
         <v>5976</v>
       </c>
       <c r="V35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="C36" t="s">
-        <v>196</v>
-      </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -3291,25 +3288,25 @@
         <v>51</v>
       </c>
       <c r="H36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" t="s">
         <v>197</v>
       </c>
-      <c r="I36" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36" t="s">
-        <v>82</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>198</v>
       </c>
-      <c r="N36" t="s">
-        <v>199</v>
-      </c>
       <c r="O36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -3321,21 +3318,21 @@
         <v>5976</v>
       </c>
       <c r="V36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
         <v>200</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
-        <v>202</v>
-      </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -3347,25 +3344,25 @@
         <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" t="s">
         <v>138</v>
       </c>
-      <c r="J37" t="s">
-        <v>139</v>
-      </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37" t="s">
+        <v>202</v>
+      </c>
+      <c r="N37" t="s">
         <v>203</v>
       </c>
-      <c r="N37" t="s">
-        <v>204</v>
-      </c>
       <c r="O37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -3377,18 +3374,18 @@
         <v>5976</v>
       </c>
       <c r="V37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
         <v>205</v>
       </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
@@ -3400,7 +3397,7 @@
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
         <v>28</v>
@@ -3409,16 +3406,16 @@
         <v>29</v>
       </c>
       <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s">
         <v>208</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>209</v>
       </c>
-      <c r="N38" t="s">
-        <v>210</v>
-      </c>
       <c r="O38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -3433,18 +3430,18 @@
         <v>5976</v>
       </c>
       <c r="V38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
         <v>212</v>
       </c>
-      <c r="B39" t="s">
-        <v>213</v>
-      </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -3456,7 +3453,7 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
         <v>28</v>
@@ -3465,16 +3462,16 @@
         <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N39" t="s">
         <v>214</v>
       </c>
-      <c r="N39" t="s">
-        <v>215</v>
-      </c>
       <c r="O39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3489,18 +3486,18 @@
         <v>5976</v>
       </c>
       <c r="V39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
         <v>216</v>
       </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -3512,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
         <v>28</v>
@@ -3521,16 +3518,16 @@
         <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M40" t="s">
+        <v>217</v>
+      </c>
+      <c r="N40" t="s">
         <v>218</v>
       </c>
-      <c r="N40" t="s">
-        <v>219</v>
-      </c>
       <c r="O40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -3545,18 +3542,18 @@
         <v>5976</v>
       </c>
       <c r="V40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
         <v>220</v>
       </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
@@ -3568,7 +3565,7 @@
         <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
@@ -3577,16 +3574,16 @@
         <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s">
+        <v>222</v>
+      </c>
+      <c r="N41" t="s">
         <v>223</v>
       </c>
-      <c r="N41" t="s">
-        <v>224</v>
-      </c>
       <c r="O41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -3601,18 +3598,18 @@
         <v>5976</v>
       </c>
       <c r="V41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
         <v>225</v>
       </c>
-      <c r="B42" t="s">
-        <v>226</v>
-      </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -3624,7 +3621,7 @@
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
         <v>45</v>
@@ -3633,16 +3630,16 @@
         <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" t="s">
+        <v>227</v>
+      </c>
+      <c r="N42" t="s">
         <v>228</v>
       </c>
-      <c r="N42" t="s">
-        <v>229</v>
-      </c>
       <c r="O42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -3657,18 +3654,18 @@
         <v>5976</v>
       </c>
       <c r="V42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -3680,7 +3677,7 @@
         <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
@@ -3689,16 +3686,16 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s">
+        <v>231</v>
+      </c>
+      <c r="N43" t="s">
         <v>232</v>
       </c>
-      <c r="N43" t="s">
-        <v>233</v>
-      </c>
       <c r="O43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -3713,21 +3710,21 @@
         <v>5976</v>
       </c>
       <c r="V43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
         <v>234</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>235</v>
       </c>
-      <c r="C44" t="s">
-        <v>236</v>
-      </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
@@ -3739,7 +3736,7 @@
         <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I44" t="s">
         <v>52</v>
@@ -3748,16 +3745,16 @@
         <v>53</v>
       </c>
       <c r="K44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s">
+        <v>237</v>
+      </c>
+      <c r="N44" t="s">
         <v>238</v>
       </c>
-      <c r="N44" t="s">
-        <v>239</v>
-      </c>
       <c r="O44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -3769,18 +3766,18 @@
         <v>5976</v>
       </c>
       <c r="V44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s">
         <v>240</v>
       </c>
-      <c r="B45" t="s">
-        <v>241</v>
-      </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -3792,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
@@ -3801,16 +3798,16 @@
         <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s">
+        <v>241</v>
+      </c>
+      <c r="N45" t="s">
         <v>242</v>
       </c>
-      <c r="N45" t="s">
-        <v>243</v>
-      </c>
       <c r="O45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -3825,18 +3822,18 @@
         <v>5976</v>
       </c>
       <c r="V45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
         <v>244</v>
       </c>
-      <c r="B46" t="s">
-        <v>245</v>
-      </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -3848,7 +3845,7 @@
         <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
@@ -3857,16 +3854,16 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s">
+        <v>245</v>
+      </c>
+      <c r="N46" t="s">
         <v>246</v>
       </c>
-      <c r="N46" t="s">
-        <v>247</v>
-      </c>
       <c r="O46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -3881,21 +3878,21 @@
         <v>5976</v>
       </c>
       <c r="V46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" t="s">
         <v>248</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>249</v>
       </c>
-      <c r="C47" t="s">
-        <v>250</v>
-      </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -3907,7 +3904,7 @@
         <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I47" t="s">
         <v>52</v>
@@ -3916,16 +3913,16 @@
         <v>53</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s">
+        <v>250</v>
+      </c>
+      <c r="N47" t="s">
         <v>251</v>
       </c>
-      <c r="N47" t="s">
-        <v>252</v>
-      </c>
       <c r="O47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -3937,21 +3934,21 @@
         <v>5976</v>
       </c>
       <c r="V47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s">
         <v>253</v>
-      </c>
-      <c r="B48" t="s">
-        <v>254</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F48">
         <v>11006845</v>
@@ -3960,25 +3957,25 @@
         <v>26</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I48" t="s">
         <v>255</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>256</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>257</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
         <v>258</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>259</v>
       </c>
-      <c r="N48" t="s">
-        <v>260</v>
-      </c>
       <c r="O48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -3993,24 +3990,24 @@
         <v>44000</v>
       </c>
       <c r="V48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
         <v>262</v>
       </c>
-      <c r="B49" t="s">
-        <v>263</v>
-      </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
         <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F49">
         <v>11006845</v>
@@ -4019,25 +4016,25 @@
         <v>51</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" t="s">
         <v>255</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>256</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>257</v>
       </c>
-      <c r="K49" t="s">
-        <v>258</v>
-      </c>
       <c r="M49" t="s">
+        <v>263</v>
+      </c>
+      <c r="N49" t="s">
         <v>264</v>
       </c>
-      <c r="N49" t="s">
-        <v>265</v>
-      </c>
       <c r="O49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -4049,24 +4046,24 @@
         <v>44000</v>
       </c>
       <c r="V49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" t="s">
         <v>266</v>
       </c>
-      <c r="B50" t="s">
-        <v>267</v>
-      </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
         <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F50">
         <v>11006845</v>
@@ -4075,25 +4072,25 @@
         <v>51</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" t="s">
         <v>255</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>256</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>257</v>
       </c>
-      <c r="K50" t="s">
-        <v>258</v>
-      </c>
       <c r="M50" t="s">
+        <v>267</v>
+      </c>
+      <c r="N50" t="s">
         <v>268</v>
       </c>
-      <c r="N50" t="s">
-        <v>269</v>
-      </c>
       <c r="O50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -4105,24 +4102,24 @@
         <v>44000</v>
       </c>
       <c r="V50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" t="s">
         <v>270</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>271</v>
-      </c>
-      <c r="C51" t="s">
-        <v>272</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F51">
         <v>11006845</v>
@@ -4131,25 +4128,25 @@
         <v>51</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" t="s">
         <v>273</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
+        <v>257</v>
+      </c>
+      <c r="M51" t="s">
         <v>274</v>
       </c>
-      <c r="K51" t="s">
-        <v>258</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>275</v>
       </c>
-      <c r="N51" t="s">
-        <v>276</v>
-      </c>
       <c r="O51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -4161,24 +4158,24 @@
         <v>44000</v>
       </c>
       <c r="V51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" t="s">
         <v>277</v>
       </c>
-      <c r="B52" t="s">
-        <v>278</v>
-      </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
         <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>11006845</v>
@@ -4187,25 +4184,25 @@
         <v>51</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I52" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" t="s">
         <v>273</v>
       </c>
-      <c r="J52" t="s">
-        <v>274</v>
-      </c>
       <c r="K52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M52" t="s">
+        <v>278</v>
+      </c>
+      <c r="N52" t="s">
         <v>279</v>
       </c>
-      <c r="N52" t="s">
-        <v>280</v>
-      </c>
       <c r="O52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -4217,24 +4214,24 @@
         <v>44000</v>
       </c>
       <c r="V52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s">
         <v>281</v>
       </c>
-      <c r="B53" t="s">
-        <v>282</v>
-      </c>
       <c r="C53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
         <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F53">
         <v>11006845</v>
@@ -4243,25 +4240,25 @@
         <v>51</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I53" t="s">
+        <v>272</v>
+      </c>
+      <c r="J53" t="s">
         <v>273</v>
       </c>
-      <c r="J53" t="s">
-        <v>274</v>
-      </c>
       <c r="K53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M53" t="s">
+        <v>282</v>
+      </c>
+      <c r="N53" t="s">
         <v>283</v>
       </c>
-      <c r="N53" t="s">
-        <v>284</v>
-      </c>
       <c r="O53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -4273,24 +4270,24 @@
         <v>44000</v>
       </c>
       <c r="V53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
         <v>285</v>
       </c>
-      <c r="B54" t="s">
-        <v>286</v>
-      </c>
       <c r="C54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F54">
         <v>11006845</v>
@@ -4299,25 +4296,25 @@
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I54" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" t="s">
         <v>273</v>
       </c>
-      <c r="J54" t="s">
-        <v>274</v>
-      </c>
       <c r="K54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M54" t="s">
+        <v>286</v>
+      </c>
+      <c r="N54" t="s">
         <v>287</v>
       </c>
-      <c r="N54" t="s">
-        <v>288</v>
-      </c>
       <c r="O54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -4329,24 +4326,24 @@
         <v>44000</v>
       </c>
       <c r="V54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
         <v>289</v>
       </c>
-      <c r="B55" t="s">
-        <v>290</v>
-      </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
         <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F55">
         <v>11006845</v>
@@ -4355,25 +4352,25 @@
         <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I55" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55" t="s">
         <v>273</v>
       </c>
-      <c r="J55" t="s">
-        <v>274</v>
-      </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M55" t="s">
+        <v>290</v>
+      </c>
+      <c r="N55" t="s">
         <v>291</v>
       </c>
-      <c r="N55" t="s">
-        <v>292</v>
-      </c>
       <c r="O55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -4385,7 +4382,7 @@
         <v>44000</v>
       </c>
       <c r="V55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
